--- a/data/spring-cloud-shop/shop-risk-client_structure.xlsx
+++ b/data/spring-cloud-shop/shop-risk-client_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="75">
   <si>
     <t>Class Name</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>13</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>10</t>
@@ -1504,7 +1501,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1537,7 +1534,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>72</v>
@@ -1548,7 +1545,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>73</v>
@@ -1559,10 +1556,10 @@
         <v>26</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -1570,21 +1567,21 @@
         <v>26</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
@@ -1592,7 +1589,7 @@
         <v>29</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>73</v>
@@ -1603,10 +1600,10 @@
         <v>29</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -1614,18 +1611,18 @@
         <v>29</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>72</v>
@@ -1633,13 +1630,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
@@ -1647,10 +1644,10 @@
         <v>31</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
@@ -1658,43 +1655,43 @@
         <v>31</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -1702,7 +1699,7 @@
         <v>33</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>60</v>
@@ -1710,123 +1707,68 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
